--- a/Personal_Finance.xlsx
+++ b/Personal_Finance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy\Desktop\Excel_Projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC5E56-D43F-46D1-B1CF-7F4901FE5E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Finanzas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>Ingreso Total</t>
+  </si>
+  <si>
+    <t>GASTOS VARIABLES</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>datos</t>
+  </si>
+  <si>
+    <t>TOTAL GASTOS</t>
+  </si>
+  <si>
+    <t>AHORROS</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Ahorro Inversion</t>
+  </si>
+  <si>
+    <t>Ahorro Gustos</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>DIVIDIDO POR DOS</t>
+  </si>
+  <si>
+    <t>DINERO DISPONIBLE</t>
+  </si>
+  <si>
+    <t>Esto se Pone manual</t>
+  </si>
+  <si>
+    <t>Esto es automatico</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>MONTO TOTAL</t>
+  </si>
+  <si>
+    <t>AHORRADO</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>Aqui va el nombre de la meta que te pones</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>PROGRESO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +133,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,17 +193,289 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +486,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}" name="Tabla2" displayName="Tabla2" ref="A1:D18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:D18" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5B8476C5-8D52-4C0E-A9AF-4090AA0A1879}" name="Columna1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3ABEF486-657D-4276-9838-2A94B332BA06}" name="Columna2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FA7250E0-561B-446D-B16A-3F05EDEDB738}" name="Columna3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CB7E586C-8A4E-4EE3-A63D-18DEB2518F21}" name="Columna4" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}" name="Tabla35" displayName="Tabla35" ref="F1:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="F1:J3" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EAEE59FD-40B3-4A50-A4C4-3EA76D7098D3}" name="META" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{440E820E-241A-4B6D-90CC-51171E4F7A2B}" name="MONTO TOTAL" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{52DC3FBF-F4B1-4750-BE48-04C6DFB3DDB5}" name="AHORRADO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B390199F-4DD4-4739-B3A2-F0CF4578536C}" name="FALTA" dataDxfId="1">
+      <calculatedColumnFormula>G2-H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{62826AD8-5C57-4734-968C-2EEFB9A8E387}" name="PROGRESO" dataDxfId="0">
+      <calculatedColumnFormula>Tabla35[[#This Row],[AHORRADO]]/Tabla35[[#This Row],[MONTO TOTAL]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +781,557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15">
+        <v>2000000</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
+        <f>G2-H2</f>
+        <v>2000000</v>
+      </c>
+      <c r="J2" s="12">
+        <f>Tabla35[[#This Row],[AHORRADO]]/Tabla35[[#This Row],[MONTO TOTAL]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C9" si="0">B5/2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="15">
+        <f>B3*B14</f>
+        <v>200000</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="15">
+        <f>B3*B15</f>
+        <v>100000</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="15">
+        <f>B3*B16</f>
+        <v>300000</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <f>B3-C10-C14-C15-C16</f>
+        <v>400000</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D537A19-B56D-49DE-9E08-EF0B27CE71D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B9">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93DC9337-AC70-45BC-A95B-D9C22727C6D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C10">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB829BF7-429D-4E3C-942B-B3EABA2068DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A0DA199-8641-4981-8AE6-EAC9A5AB48FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C16">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B10">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21EA2C8D-B131-403C-9672-C06C4AA65706}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{068791DF-5C55-4E57-B169-1B9F37784B52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76F6329D-2089-40AA-A3D8-6125D8B26301}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF863416-7D5D-4FF3-AA53-81E590CD201F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75EA89C9-1449-4716-90CB-D71764FA2EBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C5BB3B3-C238-4096-96F7-003A107ABC24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D537A19-B56D-49DE-9E08-EF0B27CE71D5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93DC9337-AC70-45BC-A95B-D9C22727C6D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB829BF7-429D-4E3C-942B-B3EABA2068DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A0DA199-8641-4981-8AE6-EAC9A5AB48FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B14:C16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21EA2C8D-B131-403C-9672-C06C4AA65706}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{068791DF-5C55-4E57-B169-1B9F37784B52}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76F6329D-2089-40AA-A3D8-6125D8B26301}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF863416-7D5D-4FF3-AA53-81E590CD201F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C14:C16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75EA89C9-1449-4716-90CB-D71764FA2EBE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C5BB3B3-C238-4096-96F7-003A107ABC24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Personal_Finance.xlsx
+++ b/Personal_Finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy\Desktop\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC5E56-D43F-46D1-B1CF-7F4901FE5E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3713F-CDE0-4F01-B74F-3329BB2937CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>INGRESO</t>
   </si>
@@ -36,12 +36,6 @@
     <t>GASTOS VARIABLES</t>
   </si>
   <si>
-    <t>luz</t>
-  </si>
-  <si>
-    <t>agua</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -115,6 +109,18 @@
   </si>
   <si>
     <t>PROGRESO</t>
+  </si>
+  <si>
+    <t>Arriendo</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Agua</t>
   </si>
 </sst>
 </file>
@@ -123,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +163,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,26 +280,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,7 +350,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -318,7 +365,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -333,7 +381,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -348,7 +397,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -367,6 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -376,11 +443,68 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -409,72 +533,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -489,29 +547,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}" name="Tabla2" displayName="Tabla2" ref="A1:D18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:D18" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}" name="Tabla2" displayName="Tabla2" ref="A1:D20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="6">
+  <autoFilter ref="A1:D20" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5B8476C5-8D52-4C0E-A9AF-4090AA0A1879}" name="Columna1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{3ABEF486-657D-4276-9838-2A94B332BA06}" name="Columna2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FA7250E0-561B-446D-B16A-3F05EDEDB738}" name="Columna3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{CB7E586C-8A4E-4EE3-A63D-18DEB2518F21}" name="Columna4" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5B8476C5-8D52-4C0E-A9AF-4090AA0A1879}" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3ABEF486-657D-4276-9838-2A94B332BA06}" name="Columna2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FA7250E0-561B-446D-B16A-3F05EDEDB738}" name="Columna3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{CB7E586C-8A4E-4EE3-A63D-18DEB2518F21}" name="Columna4" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}" name="Tabla35" displayName="Tabla35" ref="F1:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}" name="Tabla35" displayName="Tabla35" ref="F1:J3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="F1:J3" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EAEE59FD-40B3-4A50-A4C4-3EA76D7098D3}" name="META" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{440E820E-241A-4B6D-90CC-51171E4F7A2B}" name="MONTO TOTAL" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{52DC3FBF-F4B1-4750-BE48-04C6DFB3DDB5}" name="AHORRADO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B390199F-4DD4-4739-B3A2-F0CF4578536C}" name="FALTA" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{EAEE59FD-40B3-4A50-A4C4-3EA76D7098D3}" name="META" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{440E820E-241A-4B6D-90CC-51171E4F7A2B}" name="MONTO TOTAL" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{52DC3FBF-F4B1-4750-BE48-04C6DFB3DDB5}" name="AHORRADO" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B390199F-4DD4-4739-B3A2-F0CF4578536C}" name="FALTA" dataDxfId="2">
       <calculatedColumnFormula>G2-H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62826AD8-5C57-4734-968C-2EEFB9A8E387}" name="PROGRESO" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{62826AD8-5C57-4734-968C-2EEFB9A8E387}" name="PROGRESO" dataDxfId="1">
       <calculatedColumnFormula>Tabla35[[#This Row],[AHORRADO]]/Tabla35[[#This Row],[MONTO TOTAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -783,16 +841,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
@@ -804,235 +862,276 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="G2" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="H2" s="20">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2000000</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <f>G2-H2</f>
         <v>2000000</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="5">
         <f>Tabla35[[#This Row],[AHORRADO]]/Tabla35[[#This Row],[MONTO TOTAL]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="10">
+        <v>1423000</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ref="C5:C11" si="0">B5/2</f>
+        <v>600000</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15">
-        <f t="shared" ref="C5:C9" si="0">B5/2</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B8" s="10">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15">
+      <c r="B9" s="10">
+        <v>80000</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15">
+      <c r="B10" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>11500</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B12" s="14">
+        <f>SUM(C5:C11)</f>
+        <v>793500</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="D15" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="16">
+        <f>B3*B16</f>
+        <v>284600</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="16">
+        <f>B3*B17</f>
+        <v>142300</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="15">
-        <f>B3*B14</f>
-        <v>200000</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="15">
-        <f>B3*B15</f>
-        <v>100000</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B18" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C18" s="16">
+        <f>B3*B18</f>
+        <v>170760</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="15">
-        <f>B3*B16</f>
-        <v>300000</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <f>B3-C10-C14-C15-C16</f>
-        <v>400000</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
+      <c r="B20" s="17">
+        <f>B3-B12-C16-C17-C18</f>
+        <v>31840</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1045,8 +1144,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B9">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="B6:B11">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1059,22 +1158,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C10">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB829BF7-429D-4E3C-942B-B3EABA2068DB}</x14:id>
+          <x14:id>{76F6329D-2089-40AA-A3D8-6125D8B26301}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="B16:C18">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1087,36 +1200,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C16">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B10">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21EA2C8D-B131-403C-9672-C06C4AA65706}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C9">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1129,22 +1214,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76F6329D-2089-40AA-A3D8-6125D8B26301}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="C16:C18">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1158,7 +1229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1172,7 +1243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1181,6 +1252,76 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9C5BB3B3-C238-4096-96F7-003A107ABC24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5701699A-5A86-4B76-84C6-DB4B7B2328FD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B12">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21EA2C8D-B131-403C-9672-C06C4AA65706}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C12">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB829BF7-429D-4E3C-942B-B3EABA2068DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4166F7BA-FB96-417B-9D6C-A839283BFE80}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1217,20 +1358,31 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B5:B9</xm:sqref>
+          <xm:sqref>B6:B11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB829BF7-429D-4E3C-942B-B3EABA2068DB}">
+          <x14:cfRule type="dataBar" id="{76F6329D-2089-40AA-A3D8-6125D8B26301}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
+              <x14:borderColor rgb="FFFFB628"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C10</xm:sqref>
+          <xm:sqref>B20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B16:C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A0DA199-8641-4981-8AE6-EAC9A5AB48FB}">
@@ -1243,29 +1395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D531EE90-BC4E-4397-9E15-A6E5C782ABB4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B14:C16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21EA2C8D-B131-403C-9672-C06C4AA65706}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B5:B10</xm:sqref>
+          <xm:sqref>C5:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{068791DF-5C55-4E57-B169-1B9F37784B52}">
@@ -1278,20 +1408,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76F6329D-2089-40AA-A3D8-6125D8B26301}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>C5:C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF863416-7D5D-4FF3-AA53-81E590CD201F}">
@@ -1304,7 +1421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C14:C16</xm:sqref>
+          <xm:sqref>C16:C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75EA89C9-1449-4716-90CB-D71764FA2EBE}">
@@ -1330,6 +1447,65 @@
           </x14:cfRule>
           <xm:sqref>J2:J3</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5701699A-5A86-4B76-84C6-DB4B7B2328FD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21EA2C8D-B131-403C-9672-C06C4AA65706}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6:B12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB829BF7-429D-4E3C-942B-B3EABA2068DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4166F7BA-FB96-417B-9D6C-A839283BFE80}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Personal_Finance.xlsx
+++ b/Personal_Finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy\Desktop\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3713F-CDE0-4F01-B74F-3329BB2937CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E057C41-4648-4092-B393-6A25598AFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -331,27 +342,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -443,11 +439,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -514,11 +525,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -547,7 +558,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}" name="Tabla2" displayName="Tabla2" ref="A1:D20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}" name="Tabla2" displayName="Tabla2" ref="A1:D20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:D20" xr:uid="{8EBA1F75-E5B3-4D85-98C1-A2A72DD8578D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5B8476C5-8D52-4C0E-A9AF-4090AA0A1879}" name="Columna1" dataDxfId="10"/>
@@ -560,16 +571,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}" name="Tabla35" displayName="Tabla35" ref="F1:J3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}" name="Tabla35" displayName="Tabla35" ref="F1:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="F1:J3" xr:uid="{33962383-3517-4CD8-9547-47B483B03D06}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EAEE59FD-40B3-4A50-A4C4-3EA76D7098D3}" name="META" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{440E820E-241A-4B6D-90CC-51171E4F7A2B}" name="MONTO TOTAL" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{52DC3FBF-F4B1-4750-BE48-04C6DFB3DDB5}" name="AHORRADO" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B390199F-4DD4-4739-B3A2-F0CF4578536C}" name="FALTA" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{EAEE59FD-40B3-4A50-A4C4-3EA76D7098D3}" name="META" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{440E820E-241A-4B6D-90CC-51171E4F7A2B}" name="MONTO TOTAL" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{52DC3FBF-F4B1-4750-BE48-04C6DFB3DDB5}" name="AHORRADO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B390199F-4DD4-4739-B3A2-F0CF4578536C}" name="FALTA" dataDxfId="1">
       <calculatedColumnFormula>G2-H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62826AD8-5C57-4734-968C-2EEFB9A8E387}" name="PROGRESO" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{62826AD8-5C57-4734-968C-2EEFB9A8E387}" name="PROGRESO" dataDxfId="0">
       <calculatedColumnFormula>Tabla35[[#This Row],[AHORRADO]]/Tabla35[[#This Row],[MONTO TOTAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -844,7 +855,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,8 +1027,8 @@
         <v>23000</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="0"/>
-        <v>11500</v>
+        <f>Tabla2[[#This Row],[Columna2]]</f>
+        <v>23000</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -1040,7 +1051,7 @@
       </c>
       <c r="B12" s="14">
         <f>SUM(C5:C11)</f>
-        <v>793500</v>
+        <v>805000</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="9"/>
@@ -1124,7 +1135,7 @@
       </c>
       <c r="B20" s="17">
         <f>B3-B12-C16-C17-C18</f>
-        <v>31840</v>
+        <v>20340</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="15"/>
@@ -1144,6 +1155,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11">
     <cfRule type="dataBar" priority="16">
       <dataBar>
@@ -1154,6 +1179,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{93DC9337-AC70-45BC-A95B-D9C22727C6D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B12">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21EA2C8D-B131-403C-9672-C06C4AA65706}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5701699A-5A86-4B76-84C6-DB4B7B2328FD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1214,6 +1267,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C12">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB829BF7-429D-4E3C-942B-B3EABA2068DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C18">
     <cfRule type="dataBar" priority="6">
       <dataBar>
@@ -1242,6 +1309,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4166F7BA-FB96-417B-9D6C-A839283BFE80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -1252,76 +1333,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9C5BB3B3-C238-4096-96F7-003A107ABC24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5701699A-5A86-4B76-84C6-DB4B7B2328FD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B12">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21EA2C8D-B131-403C-9672-C06C4AA65706}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C12">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB829BF7-429D-4E3C-942B-B3EABA2068DB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B11">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4166F7BA-FB96-417B-9D6C-A839283BFE80}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1348,6 +1359,17 @@
           <xm:sqref>B3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93DC9337-AC70-45BC-A95B-D9C22727C6D0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -1359,6 +1381,30 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B6:B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21EA2C8D-B131-403C-9672-C06C4AA65706}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6:B12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5701699A-5A86-4B76-84C6-DB4B7B2328FD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{76F6329D-2089-40AA-A3D8-6125D8B26301}">
@@ -1411,6 +1457,19 @@
           <xm:sqref>C5:C11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB829BF7-429D-4E3C-942B-B3EABA2068DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF863416-7D5D-4FF3-AA53-81E590CD201F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -1437,6 +1496,17 @@
           <xm:sqref>I2:I3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4166F7BA-FB96-417B-9D6C-A839283BFE80}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C5BB3B3-C238-4096-96F7-003A107ABC24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -1447,65 +1517,6 @@
           </x14:cfRule>
           <xm:sqref>J2:J3</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5701699A-5A86-4B76-84C6-DB4B7B2328FD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21EA2C8D-B131-403C-9672-C06C4AA65706}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB829BF7-429D-4E3C-942B-B3EABA2068DB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C5:C12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28AC73D4-6D81-4904-94FE-8D2C045EF6AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B5:B11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4166F7BA-FB96-417B-9D6C-A839283BFE80}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
